--- a/Assignment No-3 percentage in marksheet.xlsx
+++ b/Assignment No-3 percentage in marksheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahed8\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNI\PROGRAMMING-FUNDAMENTS-ASSIGNMENTS\PROGRAMMING-FUNDAMENTS-ASSIGNMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3C06E74-C619-4D3E-95E6-E2DCB842428D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A41BBF-D1B8-48A6-A0BB-6E99486B8040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A9273255-EAC5-416E-B13E-B76FC12C5E4F}"/>
   </bookViews>
@@ -244,6 +244,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -252,9 +255,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,7 +573,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -587,14 +587,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -634,7 +634,7 @@
         <v>C</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f>IF(E3="A+1","PASS",IF(E3="A=","PASS",IF(E3="A","PASS",IF(E3="B","PASS",IF(E3="C","PASS",IF(E3="D","PASS",IF(E3="E","PASS","FAIL")))))))</f>
+        <f>IF(E3="A+1","PASS",IF(E3="A+=","PASS",IF(E3="A","PASS",IF(E3="B","PASS",IF(E3="C","PASS",IF(E3="D","PASS",IF(E3="E","PASS","FAIL")))))))</f>
         <v>PASS</v>
       </c>
     </row>
@@ -656,7 +656,7 @@
         <v>A+1</v>
       </c>
       <c r="F4" s="2" t="str">
-        <f>IF(E4="A+1","PASS",IF(E4="A=","PASS",IF(E4="A","PASS",IF(E4="B","PASS",IF(E4="C","PASS",IF(E4="D","PASS",IF(E4="E","PASS","FAIL")))))))</f>
+        <f>IF(E4="A+1","PASS",IF(E4="A+","PASS",IF(E4="A","PASS",IF(E4="B","PASS",IF(E4="C","PASS",IF(E4="D","PASS",IF(E4="E","PASS","FAIL")))))))</f>
         <v>PASS</v>
       </c>
     </row>
@@ -678,7 +678,7 @@
         <v>B</v>
       </c>
       <c r="F5" s="2" t="str">
-        <f>IF(E5="A+1","PASS",IF(E5="A=","PASS",IF(E5="A","PASS",IF(E5="B","PASS",IF(E5="C","PASS",IF(E5="D","PASS",IF(E5="E","PASS","FAIL")))))))</f>
+        <f>IF(E5="A+1","PASS",IF(E5="A+=","PASS",IF(E5="A","PASS",IF(E5="B","PASS",IF(E5="C","PASS",IF(E5="D","PASS",IF(E5="E","PASS","FAIL")))))))</f>
         <v>PASS</v>
       </c>
     </row>
@@ -700,7 +700,7 @@
         <v>B</v>
       </c>
       <c r="F6" s="2" t="str">
-        <f>IF(E6="A+1","PASS",IF(E6="A=","PASS",IF(E6="A","PASS",IF(E6="B","PASS",IF(E6="C","PASS",IF(E6="D","PASS",IF(E6="E","PASS","FAIL")))))))</f>
+        <f>IF(E6="A+1","PASS",IF(E6="A+=","PASS",IF(E6="A","PASS",IF(E6="B","PASS",IF(E6="C","PASS",IF(E6="D","PASS",IF(E6="E","PASS","FAIL")))))))</f>
         <v>PASS</v>
       </c>
     </row>
@@ -718,11 +718,11 @@
         <v>69</v>
       </c>
       <c r="E7" s="2" t="str">
-        <f>IF(D7&gt;=90,"A+1",IF(D7=80,"A+",IF(D7&gt;=70,"A",IF(D7&gt;=60,"B",IF(D7&gt;=50,"C",IF(D7&gt;=40,"D","F"))))))</f>
+        <f>IF(D7&gt;=90,"A+1",IF(D7&gt;=80,"A+",IF(D7&gt;=70,"A",IF(D7&gt;=60,"B",IF(D7&gt;=50,"C",IF(D7&gt;=40,"D","F"))))))</f>
         <v>B</v>
       </c>
       <c r="F7" s="2" t="str">
-        <f>IF(E7="A+1","PASS",IF(E7="A=","PASS",IF(E7="A","PASS",IF(E7="B","PASS",IF(E7="C","PASS",IF(E7="D","PASS",IF(E7="E","PASS","FAIL")))))))</f>
+        <f>IF(E7="A+1","PASS",IF(E7="A+=","PASS",IF(E7="A","PASS",IF(E7="B","PASS",IF(E7="C","PASS",IF(E7="D","PASS",IF(E7="E","PASS","FAIL")))))))</f>
         <v>PASS</v>
       </c>
     </row>
@@ -744,7 +744,7 @@
         <v>C</v>
       </c>
       <c r="F8" s="2" t="str">
-        <f>IF(E8="A+1","PASS",IF(E8="A=","PASS",IF(E8="A","PASS",IF(E8="B","PASS",IF(E8="C","PASS",IF(E8="D","PASS",IF(E8="E","PASS","FAIL")))))))</f>
+        <f>IF(E8="A+1","PASS",IF(E8="A+=","PASS",IF(E8="A","PASS",IF(E8="B","PASS",IF(E8="C","PASS",IF(E8="D","PASS",IF(E8="E","PASS","FAIL")))))))</f>
         <v>PASS</v>
       </c>
     </row>
@@ -764,12 +764,12 @@
         <f>SUM(D3:D8)</f>
         <v>353</v>
       </c>
-      <c r="E9" s="12" t="str">
+      <c r="E9" s="9" t="str">
         <f>IF(D9&gt;=450,"A+1",IF(D9&gt;=400,"A+",IF(D9&gt;=350,"A",IF(D9&gt;=300,"B",IF(D9&gt;=250,"C",IF(D9&gt;=200,"D",IF(D9&gt;=170,"E","F")))))))</f>
         <v>A</v>
       </c>
       <c r="F9" s="2" t="str">
-        <f>IF(E9="A+1","PASS",IF(E9="A=","PASS",IF(E9="A","PASS",IF(E9="B","PASS",IF(E9="C","PASS",IF(E9="D","PASS",IF(E9="E","PASS","FAIL")))))))</f>
+        <f>IF(E9="A+1","PASS",IF(E9="A+=","PASS",IF(E9="A","PASS",IF(E9="B","PASS",IF(E9="C","PASS",IF(E9="D","PASS",IF(E9="E","PASS","FAIL")))))))</f>
         <v>PASS</v>
       </c>
     </row>
